--- a/sequences/03_localizer.xlsx
+++ b/sequences/03_localizer.xlsx
@@ -31,208 +31,316 @@
     <t>iti</t>
   </si>
   <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>car</t>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
   </si>
   <si>
     <t>flower/flower002.png</t>
   </si>
   <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>car/car012.png</t>
+  </si>
+  <si>
     <t>dog/dog005.png</t>
   </si>
   <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
   </si>
   <si>
     <t>face/face004.png</t>
   </si>
   <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
   </si>
   <si>
     <t>dog/dog006.png</t>
   </si>
   <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
     <t>face/face000.png</t>
   </si>
   <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
   </si>
   <si>
     <t>car/car015.png</t>
   </si>
   <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
   </si>
   <si>
     <t>dog/dog028.png</t>
@@ -241,190 +349,241 @@
     <t>car/car018.png</t>
   </si>
   <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
     <t>car/car027.png</t>
   </si>
   <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
   </si>
   <si>
     <t>dog/dog031.png</t>
   </si>
   <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
+    <t>flower/flower017.png</t>
   </si>
   <si>
     <t>face/face021.png</t>
   </si>
   <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
     <t>flower/flower016.png</t>
   </si>
   <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
+    <t>flower/flower031.png</t>
   </si>
   <si>
     <t>flower/flower019.png</t>
   </si>
   <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog036.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
   </si>
   <si>
     <t>flower/flower034.png</t>
@@ -433,382 +592,223 @@
     <t>flower/flower036.png</t>
   </si>
   <si>
-    <t>dog/dog039.png</t>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
   </si>
   <si>
     <t>face/face038.png</t>
   </si>
   <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
   </si>
   <si>
     <t>dog/dog044.png</t>
   </si>
   <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
     <t>face/face034.png</t>
   </si>
   <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
   </si>
   <si>
     <t>dog/dog059.png</t>
   </si>
   <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
+  </si>
+  <si>
     <t>dog/dog060.png</t>
   </si>
   <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
   </si>
   <si>
     <t>face/face049.png</t>
   </si>
   <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
   </si>
   <si>
     <t>car/car061.png</t>
   </si>
   <si>
-    <t>car/car051.png</t>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
   </si>
   <si>
     <t>car/car049.png</t>
   </si>
   <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
   </si>
   <si>
     <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.555280977619515</v>
+        <v>1.583121803967872</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.315522296005589</v>
+        <v>1.304999257805113</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.408402309977869</v>
+        <v>1.574421031119439</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.641815022958045</v>
+        <v>1.359481625300455</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.529786832002973</v>
+        <v>1.378743707809452</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.552410399414347</v>
+        <v>1.482958226639846</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.149546852611007</v>
+        <v>1.632695378012847</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.611527070705876</v>
+        <v>1.767316809631782</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.445532109876622</v>
+        <v>1.535448266062802</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.580925084721859</v>
+        <v>1.521785164503352</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.041661204651736</v>
+        <v>1.603666759927155</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.295072468027515</v>
+        <v>1.388569200650892</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.521617755976875</v>
+        <v>1.521662320252839</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.53406948595216</v>
+        <v>1.38951794148153</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.540262536589807</v>
+        <v>1.648397364162502</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.779772590553458</v>
+        <v>1.31869962021081</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.409863624305352</v>
+        <v>1.582396740282908</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.499268650287646</v>
+        <v>1.595458639122441</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.798825880889743</v>
+        <v>1.401830381493953</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.270007220051987</v>
+        <v>1.676561940207532</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.526922335463899</v>
+        <v>1.760514624549398</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.604267869015952</v>
+        <v>1.469992529798334</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.600250633323475</v>
+        <v>1.559694808384796</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <v>1.462779338304522</v>
+        <v>1.462343339256395</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.664725492559084</v>
+        <v>1.352701967947856</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.529155945699024</v>
+        <v>1.639818734567152</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.764878181968908</v>
+        <v>1.374147651353578</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.465743683806461</v>
+        <v>1.636967431126674</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.465965908783999</v>
+        <v>1.383687626445552</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.427941360307364</v>
+        <v>1.132811945521645</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.113694773740704</v>
+        <v>1.647910024596468</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.428200451878712</v>
+        <v>1.524359188808969</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.099617239068249</v>
+        <v>1.455626586422049</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.532051973361749</v>
+        <v>1.556829936744233</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.443735488653649</v>
+        <v>1.54979668036612</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.355965045854181</v>
+        <v>1.331123454410972</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.499878029919912</v>
+        <v>1.392192049337803</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.363078483652495</v>
+        <v>1.567626778382951</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.487345357246627</v>
+        <v>1.433753622831713</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.403281831353119</v>
+        <v>1.591301727127001</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.285626191462772</v>
+        <v>1.376091785158004</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.584105967931375</v>
+        <v>1.353761163866635</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.305162754316332</v>
+        <v>1.539983349254774</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.525721920748767</v>
+        <v>1.225367570481689</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.671591834545494</v>
+        <v>1.266352518617888</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.581573158334387</v>
+        <v>1.563770150519528</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.509682798378692</v>
+        <v>1.761394621739937</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.763645466404855</v>
+        <v>1.446043208264824</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.21244199524241</v>
+        <v>1.69060100199422</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.449617279613697</v>
+        <v>1.487707644875929</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.295259722016789</v>
+        <v>1.657488786412743</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.680200276711071</v>
+        <v>1.193498792692056</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.709567967910684</v>
+        <v>1.54310732464689</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.576839145573002</v>
+        <v>1.427288965321988</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.530686045216554</v>
+        <v>1.355804991250225</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.690549049033347</v>
+        <v>1.515023857535953</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.335499659185162</v>
+        <v>1.354138547217552</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.613414001327677</v>
+        <v>1.846262831609848</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.332407234519652</v>
+        <v>1.498731592821226</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.492241363476321</v>
+        <v>1.558598730237587</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.492212900658947</v>
+        <v>1.582619014989579</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.595376518404323</v>
+        <v>1.391994226609147</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.614488671548078</v>
+        <v>1.720027691904884</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.281818071299046</v>
+        <v>1.650657230445488</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1.482575354803544</v>
+        <v>1.441368698364557</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.531309299498953</v>
+        <v>1.505303535036951</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.445048484353654</v>
+        <v>1.630931728633848</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.409697783543261</v>
+        <v>1.326598684084639</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.401471342094583</v>
+        <v>1.500631006874711</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.304659370200334</v>
+        <v>1.408799467072956</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.41371784929962</v>
+        <v>1.581451200544032</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.614093933966611</v>
+        <v>1.533557397398893</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.559690428259232</v>
+        <v>1.593022731848751</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.352876129939319</v>
+        <v>1.301833849570143</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.437009941852818</v>
+        <v>1.439217006495803</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.360845265805491</v>
+        <v>1.223844027353599</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.560337002127322</v>
+        <v>1.549830308387743</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.360334364336511</v>
+        <v>1.44812199368722</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.409055897203549</v>
+        <v>1.592805682781534</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.558216867013871</v>
+        <v>1.689926689617035</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.724448218453334</v>
+        <v>1.488393445374771</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.384855502741808</v>
+        <v>1.670265439592035</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.672546152485489</v>
+        <v>1.243614572880205</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.611257724251007</v>
+        <v>1.230938425032745</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.307854423996417</v>
+        <v>1.664596310377318</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.582088599902015</v>
+        <v>1.384451862022451</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.618887629108898</v>
+        <v>1.51267707449919</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.905977595782108</v>
+        <v>1.680282203739848</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.355672606212819</v>
+        <v>1.62690171936884</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.308742574778051</v>
+        <v>1.492339313652188</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.396553441824799</v>
+        <v>1.452506339240038</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.269873285890985</v>
+        <v>1.790179269307407</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.430971224910713</v>
+        <v>1.518157838490301</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.626539285467491</v>
+        <v>1.637793329124666</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.5362935524233</v>
+        <v>1.543825935593826</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>1.51728388964173</v>
+        <v>1.496875393583343</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.407756615574092</v>
+        <v>1.299130193003371</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.558908954336647</v>
+        <v>1.368874980321776</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.426162255007619</v>
+        <v>1.734727085050058</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.392929199834501</v>
+        <v>1.549445516749547</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.520761898287504</v>
+        <v>1.596295931545386</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.237822734882615</v>
+        <v>1.500812338463949</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.560266535204158</v>
+        <v>1.485853335876427</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.594963420082512</v>
+        <v>1.316027397614496</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.529265713093173</v>
+        <v>1.608797210024562</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.156874122801669</v>
+        <v>1.217299221736572</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.489583152117069</v>
+        <v>1.311240269775771</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.780843562702034</v>
+        <v>1.351866725566217</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.492738819418695</v>
+        <v>1.557455251333468</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.361054569737336</v>
+        <v>1.442281373307951</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.5463175675635</v>
+        <v>1.291938665283126</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.607437169171827</v>
+        <v>1.489864988669591</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.602289658167034</v>
+        <v>1.574737126891146</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.647337197186872</v>
+        <v>1.573017133648866</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.376211991154956</v>
+        <v>1.33407225063484</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.534988731192342</v>
+        <v>1.579338594362406</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.60423756140811</v>
+        <v>1.451247516026733</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.602354796153722</v>
+        <v>1.315991866780402</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.581269095305729</v>
+        <v>1.54171506674109</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.560781026792855</v>
+        <v>1.244790428356712</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="F122">
-        <v>1.568788789664238</v>
+        <v>1.526183724190859</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.453166098673893</v>
+        <v>1.57804068444129</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1.49121169536851</v>
+        <v>1.727237198823005</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.39811737143023</v>
+        <v>1.175638344155797</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.526334385133978</v>
+        <v>1.48472764989222</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.454499889158507</v>
+        <v>1.460022182365753</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.681666754272709</v>
+        <v>1.408005533794913</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.351200426317488</v>
+        <v>1.747150762564594</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130">
-        <v>1.502293697701542</v>
+        <v>1.317141592810684</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.610831005859952</v>
+        <v>1.603680323478007</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.564626087010999</v>
+        <v>1.497294167312214</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.750659239166582</v>
+        <v>1.251569588706075</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.50893654159916</v>
+        <v>1.587487601249414</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.366650159334839</v>
+        <v>1.723650652290233</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.644670269983857</v>
+        <v>1.33385134151994</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.572732251331201</v>
+        <v>1.532262858226022</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.29473001253458</v>
+        <v>1.485054231250762</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.723641878340518</v>
+        <v>1.427541031646435</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.405132407417432</v>
+        <v>1.641193448200274</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.405940308681539</v>
+        <v>1.547186236540709</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.46074666445891</v>
+        <v>1.262745005122363</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.620899528428231</v>
+        <v>1.339142654858297</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.707008742825409</v>
+        <v>1.492805854934879</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.670904683628979</v>
+        <v>1.322033326495363</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146">
-        <v>1.429759075282203</v>
+        <v>1.260071576708103</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.443144990379716</v>
+        <v>1.308609092981686</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.363861788074114</v>
+        <v>1.334664494080633</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.163367967523201</v>
+        <v>1.421852278486279</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.654650989053964</v>
+        <v>1.723948232025306</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.612998646330878</v>
+        <v>1.823978444548839</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.547737673847851</v>
+        <v>1.640031441774864</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.603075428964645</v>
+        <v>1.623658901904718</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.472342643819622</v>
+        <v>1.485048655282568</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.679657697614477</v>
+        <v>1.440750102413175</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.522702536113675</v>
+        <v>1.350439656611499</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.59949373098106</v>
+        <v>1.353676365319396</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.806448897779114</v>
+        <v>1.682908850518893</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.639965882143065</v>
+        <v>1.472720160815211</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.532776047554623</v>
+        <v>1.430108190633266</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.41384965950861</v>
+        <v>1.594950878463364</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.730669733390786</v>
+        <v>1.599426540950104</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>1.604818082934661</v>
+        <v>1.557902468570199</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.368959855587913</v>
+        <v>1.548584435331915</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.448993752249925</v>
+        <v>1.424348025704262</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.327691094924824</v>
+        <v>1.319516755579858</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.472476187524903</v>
+        <v>1.627317044363976</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.432254156731033</v>
+        <v>1.330135848440068</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.631044666874539</v>
+        <v>1.322308304271134</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.57683574533377</v>
+        <v>1.292481912615455</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.332790022255037</v>
+        <v>1.440357949879189</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.378388247782521</v>
+        <v>1.549910125879922</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.667850600437736</v>
+        <v>1.379460211156503</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.508697284570503</v>
+        <v>1.44626826501623</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.479148098409527</v>
+        <v>1.621229129377227</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.414803436211658</v>
+        <v>1.283738191275914</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.569741655390585</v>
+        <v>1.361043895746589</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.638965243583727</v>
+        <v>1.523404926953416</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.317583184082569</v>
+        <v>1.322350434000292</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4763,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>1.692473476171062</v>
+        <v>1.749372240695081</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.423600338326206</v>
+        <v>1.702361916763262</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.429449042136413</v>
+        <v>1.459425889767139</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.44548533654912</v>
+        <v>1.59719536618346</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.563291898385174</v>
+        <v>1.252592509782011</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.52909942163454</v>
+        <v>1.844402354972154</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.386235077635556</v>
+        <v>1.552507702667653</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.716242524082055</v>
+        <v>1.420418724143798</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.677301048611732</v>
+        <v>1.570594165731477</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.786334576098455</v>
+        <v>1.079389084033556</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.454014853573606</v>
+        <v>1.426570355977337</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.408688842849037</v>
+        <v>1.542225852149425</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.289482194243051</v>
+        <v>1.654360659220727</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.82296956170703</v>
+        <v>1.214766148255057</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.562874052704804</v>
+        <v>1.584271800004847</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.614675654145606</v>
+        <v>1.642416535464792</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.943925519235626</v>
+        <v>1.824959863347963</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.494030297057362</v>
+        <v>1.630780849627821</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.591022100827616</v>
+        <v>1.474654796619954</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.252229987024534</v>
+        <v>1.662304921434157</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.471128182594457</v>
+        <v>1.683577227568755</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.51417345698228</v>
+        <v>1.413519644521034</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.713105761399032</v>
+        <v>1.392756653346681</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.619036035926342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.342762463050329</v>
+        <v>1.41319464364455</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.708069983565468</v>
+        <v>1.160550629791271</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.631257114935831</v>
+        <v>1.632013342271526</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.459149697454442</v>
+        <v>1.422702953068292</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.603435346407065</v>
+        <v>1.355520270023962</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.491606100840265</v>
+        <v>1.395516940944483</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210">
-        <v>1.350624143716905</v>
+        <v>1.492256412260259</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.330977159690165</v>
+        <v>1.519435413420783</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.56155954724156</v>
+        <v>1.275301673959873</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.237374980670371</v>
+        <v>1.396573051840534</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.617397924843123</v>
+        <v>1.704522198853113</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.55313732226723</v>
+        <v>1.30586850219034</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.513667763954868</v>
+        <v>1.384008517101801</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.469987384792097</v>
+        <v>1.617112730626369</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.520015342055301</v>
+        <v>1.638741059140162</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.653174335527607</v>
+        <v>1.254747180068846</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.198754985527636</v>
+        <v>1.245667880411785</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.414527305241142</v>
+        <v>1.847340273544613</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.304511539834958</v>
+        <v>1.681574665422276</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.363865966734984</v>
+        <v>1.812456380333529</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.458415328111555</v>
+        <v>1.883823335233999</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.404209454643406</v>
+        <v>1.504984492004637</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.600809926850248</v>
+        <v>1.517815396019754</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.640576646950215</v>
+        <v>1.715050673092572</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.467288945138272</v>
+        <v>1.558818216147105</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.591572226817276</v>
+        <v>1.288246324861003</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.419285530135074</v>
+        <v>1.298008148426607</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.502030320618341</v>
+        <v>1.375868784191367</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.543382004515528</v>
+        <v>1.416114618104657</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.697932373424868</v>
+        <v>1.575639499273502</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.604782031663666</v>
+        <v>1.546093666581224</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.53971799410796</v>
+        <v>1.45973801953517</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F236">
-        <v>1.286640060390963</v>
+        <v>1.419601208579691</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.443680110274427</v>
+        <v>1.650886060077426</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.54830704084336</v>
+        <v>1.328257418148418</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.705060736351644</v>
+        <v>1.48401301161951</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.454809809023121</v>
+        <v>1.439252176415388</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.335103876635471</v>
+        <v>1.772484604231748</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.373800162673449</v>
+        <v>1.608420256843665</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.319864200048048</v>
+        <v>1.737680835599848</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.457199121616564</v>
+        <v>1.557946821136132</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.615802868677987</v>
+        <v>1.600717306288638</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.567906933433825</v>
+        <v>1.389181692102103</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.660515448569029</v>
+        <v>1.424412454428141</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.514594007391165</v>
+        <v>1.230448544187303</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.550593225188845</v>
+        <v>1.515842393829581</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.376507421954377</v>
+        <v>1.465679198295166</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.473850881408484</v>
+        <v>1.607578538064804</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.586705940261738</v>
+        <v>1.601882710401668</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.818202341456426</v>
+        <v>1.812691799599826</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.619007956483325</v>
+        <v>1.354417364865228</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.69950068580797</v>
+        <v>1.443495970450754</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.411375452526117</v>
+        <v>1.458378833091372</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.530156026941385</v>
+        <v>1.293886606343376</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/03_localizer.xlsx
+++ b/sequences/03_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
-    <t>car</t>
+    <t>face</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
+    <t>house</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.583121803967872</v>
+        <v>1.530255668895736</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.304999257805113</v>
+        <v>1.425554135620811</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.574421031119439</v>
+        <v>1.475763847336367</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.359481625300455</v>
+        <v>1.572155766246323</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.378743707809452</v>
+        <v>1.575582648807478</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.482958226639846</v>
+        <v>1.572010223047889</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.632695378012847</v>
+        <v>1.446860005527965</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.767316809631782</v>
+        <v>1.439951687150336</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1.535448266062802</v>
+        <v>1.553814315922213</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.521785164503352</v>
+        <v>1.168041290343202</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.603666759927155</v>
+        <v>1.592379054312226</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.388569200650892</v>
+        <v>1.500618955836985</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.521662320252839</v>
+        <v>1.309485971940711</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.38951794148153</v>
+        <v>1.566012639753685</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.648397364162502</v>
+        <v>1.44915200887943</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.31869962021081</v>
+        <v>1.440005870911147</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.582396740282908</v>
+        <v>1.631934044022915</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.595458639122441</v>
+        <v>1.646843780019504</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.401830381493953</v>
+        <v>1.292070415549878</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.676561940207532</v>
+        <v>1.541061603493704</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.760514624549398</v>
+        <v>1.404330117832568</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.469992529798334</v>
+        <v>1.374178867485812</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.559694808384796</v>
+        <v>1.774745641320665</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.462343339256395</v>
+        <v>1.695851159518773</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.352701967947856</v>
+        <v>1.163236845707432</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.639818734567152</v>
+        <v>1.509818093693084</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.374147651353578</v>
+        <v>1.509048390120105</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.636967431126674</v>
+        <v>1.728394981375967</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.383687626445552</v>
+        <v>1.402914133438127</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.132811945521645</v>
+        <v>1.428295621154423</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.647910024596468</v>
+        <v>1.585291337302522</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.524359188808969</v>
+        <v>1.369756836532318</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.455626586422049</v>
+        <v>1.78809416420721</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.556829936744233</v>
+        <v>1.412505855772167</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1.54979668036612</v>
+        <v>1.547189745891476</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.331123454410972</v>
+        <v>1.399029086009433</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.392192049337803</v>
+        <v>1.501466814926627</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.567626778382951</v>
+        <v>1.354251751239452</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.433753622831713</v>
+        <v>1.218304428431108</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.591301727127001</v>
+        <v>1.401328725341755</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.376091785158004</v>
+        <v>1.463830121415433</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.353761163866635</v>
+        <v>1.505438849886076</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.539983349254774</v>
+        <v>1.406723912506645</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.225367570481689</v>
+        <v>1.560650929038786</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.266352518617888</v>
+        <v>1.529218850148129</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.563770150519528</v>
+        <v>1.224206636250527</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.761394621739937</v>
+        <v>1.594125526973337</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.446043208264824</v>
+        <v>1.66329604709821</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.69060100199422</v>
+        <v>1.319956879788199</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.487707644875929</v>
+        <v>1.499402024709133</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.657488786412743</v>
+        <v>1.629369934604635</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.193498792692056</v>
+        <v>1.435355960840913</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.54310732464689</v>
+        <v>1.412495094733077</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.427288965321988</v>
+        <v>1.437148721522242</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.355804991250225</v>
+        <v>1.735338205311125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.515023857535953</v>
+        <v>1.641436979804233</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>1.354138547217552</v>
+        <v>1.708917914680803</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.846262831609848</v>
+        <v>1.598114841251952</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.498731592821226</v>
+        <v>1.613795173205669</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.558598730237587</v>
+        <v>1.502081229830268</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.582619014989579</v>
+        <v>1.189507806203299</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.391994226609147</v>
+        <v>1.48437342561738</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.720027691904884</v>
+        <v>1.754253735703533</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.650657230445488</v>
+        <v>1.457983001764426</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.441368698364557</v>
+        <v>1.483664661419498</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>1.505303535036951</v>
+        <v>1.527421725472328</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.630931728633848</v>
+        <v>1.10235933823998</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.326598684084639</v>
+        <v>1.535808584213602</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.500631006874711</v>
+        <v>1.41970979351276</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.408799467072956</v>
+        <v>1.378215080155178</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.581451200544032</v>
+        <v>1.351713541674384</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.533557397398893</v>
+        <v>1.292557674784961</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.593022731848751</v>
+        <v>1.356164688078427</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.301833849570143</v>
+        <v>1.564887299582693</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.439217006495803</v>
+        <v>1.228562893287688</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.223844027353599</v>
+        <v>1.342763062121623</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.549830308387743</v>
+        <v>1.685230896582346</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.44812199368722</v>
+        <v>1.269641254428122</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.592805682781534</v>
+        <v>1.655056550840025</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.689926689617035</v>
+        <v>1.461773009353805</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.488393445374771</v>
+        <v>1.284761242712655</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.670265439592035</v>
+        <v>1.469512761741187</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.243614572880205</v>
+        <v>1.524023889065465</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.230938425032745</v>
+        <v>1.205787894626744</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.664596310377318</v>
+        <v>1.5402223148678</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.384451862022451</v>
+        <v>1.422932400108659</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.51267707449919</v>
+        <v>1.227027853043717</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.680282203739848</v>
+        <v>1.540073087199834</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.62690171936884</v>
+        <v>1.203333867299108</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.492339313652188</v>
+        <v>1.633768977201202</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.452506339240038</v>
+        <v>1.630759840418016</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.790179269307407</v>
+        <v>1.469568525122932</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.518157838490301</v>
+        <v>1.468004961787692</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.637793329124666</v>
+        <v>1.305560481960809</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.543825935593826</v>
+        <v>1.548755111125885</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="F97">
-        <v>1.496875393583343</v>
+        <v>1.420578402088287</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.299130193003371</v>
+        <v>1.791914762105754</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.368874980321776</v>
+        <v>1.469969062651727</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.734727085050058</v>
+        <v>1.478039120641482</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.549445516749547</v>
+        <v>1.34308577840634</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.596295931545386</v>
+        <v>1.403555310702478</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.500812338463949</v>
+        <v>1.60098299856257</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.485853335876427</v>
+        <v>1.380879412174149</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F105">
-        <v>1.316027397614496</v>
+        <v>1.562466078541242</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.608797210024562</v>
+        <v>1.679631197796144</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.217299221736572</v>
+        <v>1.4852770340581</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.311240269775771</v>
+        <v>1.347701740567805</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.351866725566217</v>
+        <v>1.454997799481818</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.557455251333468</v>
+        <v>1.949507382060106</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.442281373307951</v>
+        <v>1.442566292517233</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.291938665283126</v>
+        <v>1.40181551692278</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.489864988669591</v>
+        <v>1.222156809533387</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.574737126891146</v>
+        <v>1.586424200948215</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.573017133648866</v>
+        <v>1.504041562425148</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.33407225063484</v>
+        <v>1.556781478378327</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.579338594362406</v>
+        <v>1.364271917636411</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.451247516026733</v>
+        <v>1.642809469094948</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.315991866780402</v>
+        <v>1.769654947456291</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.54171506674109</v>
+        <v>1.492569692396742</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.244790428356712</v>
+        <v>1.485046103727066</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>1.526183724190859</v>
+        <v>1.536241338876448</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.57804068444129</v>
+        <v>1.336348550161837</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>1.727237198823005</v>
+        <v>1.674951406252322</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.175638344155797</v>
+        <v>1.621487492743364</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.48472764989222</v>
+        <v>1.48284484780966</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.460022182365753</v>
+        <v>1.479511231219278</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.408005533794913</v>
+        <v>1.625525116407257</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.747150762564594</v>
+        <v>1.21048492280981</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.317141592810684</v>
+        <v>1.674465816687651</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.603680323478007</v>
+        <v>1.406147187273145</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.497294167312214</v>
+        <v>1.722894403617685</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.251569588706075</v>
+        <v>1.393962318970841</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.587487601249414</v>
+        <v>1.481989274012537</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.723650652290233</v>
+        <v>1.386413203703032</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.33385134151994</v>
+        <v>1.711140295309322</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.532262858226022</v>
+        <v>1.508599237938453</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.485054231250762</v>
+        <v>1.598559819686589</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.427541031646435</v>
+        <v>1.211700801805827</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.641193448200274</v>
+        <v>1.466223165070393</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.547186236540709</v>
+        <v>1.24489191330886</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.262745005122363</v>
+        <v>1.277213119606897</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.339142654858297</v>
+        <v>1.486801425808974</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.492805854934879</v>
+        <v>1.52078034236259</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.322033326495363</v>
+        <v>1.425651893325654</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.260071576708103</v>
+        <v>1.521359757128542</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.308609092981686</v>
+        <v>1.324470433415281</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.334664494080633</v>
+        <v>1.43753341748005</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.421852278486279</v>
+        <v>1.48586353837086</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.723948232025306</v>
+        <v>1.359817606889434</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.823978444548839</v>
+        <v>1.765828428764796</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.640031441774864</v>
+        <v>1.571408659835261</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.623658901904718</v>
+        <v>1.360460427390414</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.485048655282568</v>
+        <v>1.66434184724194</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.440750102413175</v>
+        <v>1.569710828897345</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.350439656611499</v>
+        <v>1.376847262977289</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.353676365319396</v>
+        <v>1.528462831387057</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.682908850518893</v>
+        <v>1.572353998987332</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.472720160815211</v>
+        <v>1.527751343599576</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.430108190633266</v>
+        <v>1.351729727937372</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.594950878463364</v>
+        <v>1.383757548778403</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.599426540950104</v>
+        <v>1.498785140587945</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.557902468570199</v>
+        <v>1.507114355056375</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.548584435331915</v>
+        <v>1.152801791445537</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.424348025704262</v>
+        <v>1.690325774615763</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.319516755579858</v>
+        <v>1.723860076072841</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.627317044363976</v>
+        <v>1.471858607885367</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.330135848440068</v>
+        <v>1.609599360166216</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.322308304271134</v>
+        <v>1.702198060549367</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.292481912615455</v>
+        <v>1.685054270204101</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.440357949879189</v>
+        <v>1.619720391692109</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.549910125879922</v>
+        <v>1.58100401574251</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.379460211156503</v>
+        <v>1.651848087760697</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.44626826501623</v>
+        <v>1.611768694422395</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.621229129377227</v>
+        <v>1.535788933390894</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.283738191275914</v>
+        <v>1.317740831884894</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.361043895746589</v>
+        <v>1.573807675568049</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.523404926953416</v>
+        <v>1.352412060507407</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.322350434000292</v>
+        <v>1.508937940625124</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.749372240695081</v>
+        <v>1.528047598453065</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.702361916763262</v>
+        <v>1.64032165964248</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.459425889767139</v>
+        <v>1.344953636135058</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.59719536618346</v>
+        <v>1.634733838843098</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.252592509782011</v>
+        <v>1.718785938985019</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.844402354972154</v>
+        <v>1.836184743739169</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.552507702667653</v>
+        <v>1.817489987116008</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.420418724143798</v>
+        <v>1.527630366503216</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="F188">
-        <v>1.570594165731477</v>
+        <v>1.211505450015044</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.079389084033556</v>
+        <v>1.368275977080159</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.426570355977337</v>
+        <v>1.503031346432577</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.542225852149425</v>
+        <v>1.664845762614627</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.654360659220727</v>
+        <v>1.431761894842555</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.214766148255057</v>
+        <v>1.321388383041923</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.584271800004847</v>
+        <v>1.286417991605501</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.642416535464792</v>
+        <v>1.605128350461104</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.824959863347963</v>
+        <v>1.51522550941077</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.630780849627821</v>
+        <v>1.829530299029613</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.474654796619954</v>
+        <v>1.371231116262339</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.662304921434157</v>
+        <v>1.478001474456745</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.683577227568755</v>
+        <v>1.745853884802294</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.413519644521034</v>
+        <v>1.698709788233724</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.392756653346681</v>
+        <v>1.35732449245484</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>1.181239330948816</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.41319464364455</v>
+        <v>1.442872027048292</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.160550629791271</v>
+        <v>1.349388887960158</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.632013342271526</v>
+        <v>1.48302598537426</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.422702953068292</v>
+        <v>1.474852904032319</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.355520270023962</v>
+        <v>1.591251977015693</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.395516940944483</v>
+        <v>1.442150292605418</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="F210">
-        <v>1.492256412260259</v>
+        <v>1.426493840109817</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.519435413420783</v>
+        <v>1.502832636987172</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.275301673959873</v>
+        <v>1.566919764600939</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.396573051840534</v>
+        <v>1.54826002359503</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.704522198853113</v>
+        <v>1.395726960250124</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.30586850219034</v>
+        <v>1.570542179636006</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.384008517101801</v>
+        <v>1.352083934952202</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.617112730626369</v>
+        <v>1.366872574093408</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.638741059140162</v>
+        <v>1.490210353344115</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.254747180068846</v>
+        <v>1.381463285297072</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.245667880411785</v>
+        <v>1.529966699023019</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.847340273544613</v>
+        <v>1.587801820578473</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.681574665422276</v>
+        <v>1.992530934242785</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.812456380333529</v>
+        <v>1.627523831002682</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.883823335233999</v>
+        <v>1.360038640139859</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.504984492004637</v>
+        <v>1.447271267410664</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>1.517815396019754</v>
+        <v>1.397978781391898</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.715050673092572</v>
+        <v>1.396904515232145</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.558818216147105</v>
+        <v>1.550651515308276</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.288246324861003</v>
+        <v>1.786498638578183</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.298008148426607</v>
+        <v>1.657327878014357</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.375868784191367</v>
+        <v>1.564886696534731</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.416114618104657</v>
+        <v>1.342823199812542</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.575639499273502</v>
+        <v>1.535190555787046</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.546093666581224</v>
+        <v>1.517097220803276</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.45973801953517</v>
+        <v>1.519075712847541</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.419601208579691</v>
+        <v>1.458586843706875</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.650886060077426</v>
+        <v>1.37120403067089</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.328257418148418</v>
+        <v>1.697472426102836</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.48401301161951</v>
+        <v>1.228971210724621</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.439252176415388</v>
+        <v>1.391247334779092</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.772484604231748</v>
+        <v>1.12724346952848</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.608420256843665</v>
+        <v>1.548281953705146</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.737680835599848</v>
+        <v>1.316691688283855</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.557946821136132</v>
+        <v>1.544945206246422</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.600717306288638</v>
+        <v>1.613503953267353</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.389181692102103</v>
+        <v>1.475025079407404</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.424412454428141</v>
+        <v>1.521107319170736</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.230448544187303</v>
+        <v>1.687714393849434</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.515842393829581</v>
+        <v>1.516960888713985</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.465679198295166</v>
+        <v>1.248687379102676</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.607578538064804</v>
+        <v>1.571846639676398</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.601882710401668</v>
+        <v>1.536277387244834</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.812691799599826</v>
+        <v>1.295233157756951</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.354417364865228</v>
+        <v>1.491784898131349</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.443495970450754</v>
+        <v>1.437086094626516</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.458378833091372</v>
+        <v>1.448045001142833</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.293886606343376</v>
+        <v>1.385611768874895</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/03_localizer.xlsx
+++ b/sequences/03_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>house/house047.jpg</t>
   </si>
   <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
   </si>
   <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
   </si>
   <si>
     <t>dog/dog053.jpg</t>
   </si>
   <si>
-    <t>house/house052.jpg</t>
+    <t>dog/dog054.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>face/face053.jpg</t>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
   </si>
   <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
+    <t>face/face050.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
   </si>
   <si>
     <t>face/face064.jpg</t>
   </si>
   <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>house/house077.jpg</t>
   </si>
   <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
   </si>
   <si>
     <t>house/house069.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
   </si>
   <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
+    <t>face/face082.jpg</t>
   </si>
   <si>
     <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.530255668895736</v>
+        <v>1.637358752929734</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.425554135620811</v>
+        <v>1.319869866584743</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.475763847336367</v>
+        <v>1.360060324980009</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.572155766246323</v>
+        <v>1.302849635113154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.575582648807478</v>
+        <v>1.543146334325985</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.572010223047889</v>
+        <v>1.437342315774744</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.446860005527965</v>
+        <v>1.381034117124075</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.439951687150336</v>
+        <v>1.30021630985265</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.553814315922213</v>
+        <v>1.629696270408675</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.168041290343202</v>
+        <v>1.713095254950968</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.592379054312226</v>
+        <v>1.534954920910669</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.500618955836985</v>
+        <v>1.515898471739116</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.309485971940711</v>
+        <v>1.351338429646639</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.566012639753685</v>
+        <v>1.290823688564064</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.44915200887943</v>
+        <v>1.554847830269657</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1.440005870911147</v>
+        <v>1.431651807662955</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.631934044022915</v>
+        <v>1.304443828474134</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.646843780019504</v>
+        <v>1.561727951966236</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.292070415549878</v>
+        <v>1.932401250128963</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.541061603493704</v>
+        <v>1.376574739927234</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.404330117832568</v>
+        <v>1.372551288242911</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.374178867485812</v>
+        <v>1.468314455259942</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.774745641320665</v>
+        <v>1.343963672308718</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.695851159518773</v>
+        <v>1.608058762139022</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.163236845707432</v>
+        <v>1.670923293516491</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.509818093693084</v>
+        <v>1.478951253425593</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.509048390120105</v>
+        <v>1.676666901530238</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.728394981375967</v>
+        <v>1.291254985727408</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.402914133438127</v>
+        <v>1.638654580677098</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.428295621154423</v>
+        <v>1.55276271757239</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.585291337302522</v>
+        <v>1.483625277295371</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.369756836532318</v>
+        <v>1.796192579766971</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.78809416420721</v>
+        <v>1.619191454736411</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.412505855772167</v>
+        <v>1.537315039160857</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.547189745891476</v>
+        <v>1.480917975450889</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.399029086009433</v>
+        <v>1.845339129826932</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.501466814926627</v>
+        <v>1.750523364797881</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.354251751239452</v>
+        <v>1.752209600782568</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.218304428431108</v>
+        <v>1.563416450606277</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.401328725341755</v>
+        <v>1.318727917569421</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.463830121415433</v>
+        <v>1.722736890729563</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.505438849886076</v>
+        <v>1.66136508440432</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.406723912506645</v>
+        <v>1.503972758865028</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.560650929038786</v>
+        <v>1.500589491572327</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.529218850148129</v>
+        <v>1.606234305332787</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.224206636250527</v>
+        <v>1.379114292178006</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.594125526973337</v>
+        <v>1.330779982156638</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.66329604709821</v>
+        <v>1.609400566299543</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.319956879788199</v>
+        <v>1.427115293124753</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.499402024709133</v>
+        <v>1.634588105261255</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.629369934604635</v>
+        <v>1.607050669487673</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.435355960840913</v>
+        <v>1.256883479163823</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.412495094733077</v>
+        <v>1.675342785398636</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.437148721522242</v>
+        <v>1.2497141889667</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.735338205311125</v>
+        <v>1.649504450543203</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.641436979804233</v>
+        <v>1.350785112493889</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1.708917914680803</v>
+        <v>1.021471247223126</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.598114841251952</v>
+        <v>1.406154386978592</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.613795173205669</v>
+        <v>1.305089491575899</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.502081229830268</v>
+        <v>1.491816041240621</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.189507806203299</v>
+        <v>1.14944918217126</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.48437342561738</v>
+        <v>1.320095323731352</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.754253735703533</v>
+        <v>1.537730264334402</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.457983001764426</v>
+        <v>1.213776082982999</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.483664661419498</v>
+        <v>1.328947669375649</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.527421725472328</v>
+        <v>1.503429806402168</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.10235933823998</v>
+        <v>1.595815475096175</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.535808584213602</v>
+        <v>1.813412443177561</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.41970979351276</v>
+        <v>1.5524732384687</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.378215080155178</v>
+        <v>1.227104778302812</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.351713541674384</v>
+        <v>1.586443311755147</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.292557674784961</v>
+        <v>1.6004173764621</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.356164688078427</v>
+        <v>1.566009301512032</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.564887299582693</v>
+        <v>1.329047025293416</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.228562893287688</v>
+        <v>1.440444629471337</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.342763062121623</v>
+        <v>1.651205329311948</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.685230896582346</v>
+        <v>1.708521313525911</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.269641254428122</v>
+        <v>1.209546369793917</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.655056550840025</v>
+        <v>1.420926154994362</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.461773009353805</v>
+        <v>1.592480096786109</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.284761242712655</v>
+        <v>1.471390903904924</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.469512761741187</v>
+        <v>1.549461832702925</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.524023889065465</v>
+        <v>1.490286547712024</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.205787894626744</v>
+        <v>1.43107793225056</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.5402223148678</v>
+        <v>1.642419388880778</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.422932400108659</v>
+        <v>1.348224502315496</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.227027853043717</v>
+        <v>1.460548415982103</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.540073087199834</v>
+        <v>1.573986913033354</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.203333867299108</v>
+        <v>1.314780692107169</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.633768977201202</v>
+        <v>1.605904649195509</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.630759840418016</v>
+        <v>1.680193217126861</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.469568525122932</v>
+        <v>1.565424206675608</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.468004961787692</v>
+        <v>1.421471865816891</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.305560481960809</v>
+        <v>1.378313566787745</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.548755111125885</v>
+        <v>1.31369808965396</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3103,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>1.420578402088287</v>
+        <v>1.533797118764593</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.791914762105754</v>
+        <v>1.368842856515957</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.469969062651727</v>
+        <v>1.200696434859704</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.478039120641482</v>
+        <v>1.522186263709637</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.34308577840634</v>
+        <v>1.477472086101818</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.403555310702478</v>
+        <v>1.688698914988347</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.60098299856257</v>
+        <v>1.411058219490134</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.380879412174149</v>
+        <v>1.254111160231915</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.562466078541242</v>
+        <v>1.796679060696203</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.679631197796144</v>
+        <v>1.462673181937369</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.4852770340581</v>
+        <v>1.727761703475565</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.347701740567805</v>
+        <v>1.562184232883724</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.454997799481818</v>
+        <v>1.402846714677046</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.949507382060106</v>
+        <v>1.454046964494587</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.442566292517233</v>
+        <v>1.709479481075281</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.40181551692278</v>
+        <v>1.569682628958284</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.222156809533387</v>
+        <v>1.512197459018731</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.586424200948215</v>
+        <v>1.390742739099087</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.504041562425148</v>
+        <v>1.444590357907277</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.556781478378327</v>
+        <v>1.328314313385885</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.364271917636411</v>
+        <v>1.563454901627769</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.642809469094948</v>
+        <v>1.457559621548936</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.769654947456291</v>
+        <v>1.265185399036858</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.492569692396742</v>
+        <v>1.61801616670275</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.485046103727066</v>
+        <v>1.245825556910247</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.536241338876448</v>
+        <v>1.448910635770397</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.336348550161837</v>
+        <v>1.544951590571765</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.674951406252322</v>
+        <v>1.591425938790346</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1.621487492743364</v>
+        <v>1.288351365786154</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.48284484780966</v>
+        <v>1.722424052298027</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.479511231219278</v>
+        <v>1.466037175666177</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.625525116407257</v>
+        <v>1.466680902722039</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>1.21048492280981</v>
+        <v>1.75019645389591</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.674465816687651</v>
+        <v>1.924054898958823</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.406147187273145</v>
+        <v>1.477344729442668</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.722894403617685</v>
+        <v>1.516209390225852</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.393962318970841</v>
+        <v>1.524555932200172</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.481989274012537</v>
+        <v>1.585935503051886</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.386413203703032</v>
+        <v>1.792885327212819</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.711140295309322</v>
+        <v>1.540177976156487</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.508599237938453</v>
+        <v>1.489783030384815</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.598559819686589</v>
+        <v>1.466504550278183</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.211700801805827</v>
+        <v>1.306088347539005</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.466223165070393</v>
+        <v>1.477920781693949</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.24489191330886</v>
+        <v>1.701348876507439</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.277213119606897</v>
+        <v>1.450713743864559</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.486801425808974</v>
+        <v>1.53459395446214</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.52078034236259</v>
+        <v>1.438466373971639</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.425651893325654</v>
+        <v>1.463064804576886</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.521359757128542</v>
+        <v>1.67894787766377</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.324470433415281</v>
+        <v>1.68058948787923</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.43753341748005</v>
+        <v>1.505398167903538</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.48586353837086</v>
+        <v>1.658106675852826</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.359817606889434</v>
+        <v>1.409176623136666</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.765828428764796</v>
+        <v>1.366345346856206</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.571408659835261</v>
+        <v>1.414596838508983</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.360460427390414</v>
+        <v>1.772943134066324</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.66434184724194</v>
+        <v>1.587689641411597</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.569710828897345</v>
+        <v>1.412859638757351</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>1</v>
       </c>
       <c r="F156">
-        <v>1.376847262977289</v>
+        <v>1.500411002860846</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.528462831387057</v>
+        <v>1.350136542272686</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.572353998987332</v>
+        <v>1.459415490765018</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.527751343599576</v>
+        <v>1.527652181975111</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.351729727937372</v>
+        <v>1.386760252913324</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1.383757548778403</v>
+        <v>1.488124224295282</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.498785140587945</v>
+        <v>1.308908733662416</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.507114355056375</v>
+        <v>1.742861013430479</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.152801791445537</v>
+        <v>1.403653054962755</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.690325774615763</v>
+        <v>1.57932934494509</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.723860076072841</v>
+        <v>1.630038103531902</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.471858607885367</v>
+        <v>1.420789880527466</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.609599360166216</v>
+        <v>1.344521165975368</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.702198060549367</v>
+        <v>1.610974502988409</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.685054270204101</v>
+        <v>1.498573663593905</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.619720391692109</v>
+        <v>1.572073189664076</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.58100401574251</v>
+        <v>1.592161039177563</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.651848087760697</v>
+        <v>1.400961981654997</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.611768694422395</v>
+        <v>1.494511007924898</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.535788933390894</v>
+        <v>1.650805983494096</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.317740831884894</v>
+        <v>1.662869233378006</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.573807675568049</v>
+        <v>1.735983999528428</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.352412060507407</v>
+        <v>1.55163202172332</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.508937940625124</v>
+        <v>1.556534949013915</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.528047598453065</v>
+        <v>1.441517199411209</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.64032165964248</v>
+        <v>1.535383777542035</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.344953636135058</v>
+        <v>1.241540559030665</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.634733838843098</v>
+        <v>1.636324045780668</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.718785938985019</v>
+        <v>1.52345922424281</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.836184743739169</v>
+        <v>1.365926090251155</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.817489987116008</v>
+        <v>1.801745382025665</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.527630366503216</v>
+        <v>1.319183440190248</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.211505450015044</v>
+        <v>1.408345012100752</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.368275977080159</v>
+        <v>1.560919847704861</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.503031346432577</v>
+        <v>1.356340918792694</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.664845762614627</v>
+        <v>1.416857242185077</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.431761894842555</v>
+        <v>1.390972403649585</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.321388383041923</v>
+        <v>1.560817733615312</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.286417991605501</v>
+        <v>1.489785821575017</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.605128350461104</v>
+        <v>1.505330625825867</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.51522550941077</v>
+        <v>1.449875124257824</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.829530299029613</v>
+        <v>1.724650777264326</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1.371231116262339</v>
+        <v>1.540128792677142</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.478001474456745</v>
+        <v>1.497579504204448</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.745853884802294</v>
+        <v>1.688790983366266</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>1.698709788233724</v>
+        <v>1.339118251060827</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.35732449245484</v>
+        <v>1.606529388794821</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.181239330948816</v>
+        <v>1.542592725828259</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.442872027048292</v>
+        <v>1.737297411792914</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.349388887960158</v>
+        <v>1.532970735617319</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.48302598537426</v>
+        <v>1.467810065019253</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.474852904032319</v>
+        <v>1.462042799245023</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.591251977015693</v>
+        <v>1.308043729601257</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.442150292605418</v>
+        <v>1.402364816842368</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.426493840109817</v>
+        <v>1.752503731935712</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.502832636987172</v>
+        <v>1.312404145249915</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.566919764600939</v>
+        <v>1.444007278288605</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.54826002359503</v>
+        <v>1.687113094003049</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.395726960250124</v>
+        <v>1.488014714144575</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.570542179636006</v>
+        <v>1.772749778278377</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.352083934952202</v>
+        <v>1.724866422207819</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.366872574093408</v>
+        <v>1.50232722816693</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.490210353344115</v>
+        <v>1.575633644690578</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.381463285297072</v>
+        <v>1.587947985059594</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.529966699023019</v>
+        <v>1.136920440715015</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.587801820578473</v>
+        <v>1.520903789687838</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.992530934242785</v>
+        <v>1.658138668958294</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.627523831002682</v>
+        <v>1.314905109341023</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.360038640139859</v>
+        <v>1.32734277687068</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.447271267410664</v>
+        <v>1.421694452561953</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,10 +5683,10 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>1.397978781391898</v>
+        <v>1.216993537501607</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.396904515232145</v>
+        <v>1.337755361982387</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.550651515308276</v>
+        <v>1.229204507784681</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.786498638578183</v>
+        <v>1.493595828473399</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.657327878014357</v>
+        <v>1.630064632513714</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.564886696534731</v>
+        <v>1.759859510088073</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.342823199812542</v>
+        <v>1.528962107067825</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.535190555787046</v>
+        <v>1.621947032762937</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.517097220803276</v>
+        <v>1.456808391947503</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.519075712847541</v>
+        <v>1.555180532721058</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.458586843706875</v>
+        <v>1.414878736511805</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.37120403067089</v>
+        <v>1.689629700934446</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.697472426102836</v>
+        <v>1.541765113262507</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.228971210724621</v>
+        <v>1.547425200574982</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.391247334779092</v>
+        <v>1.555497762982106</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.12724346952848</v>
+        <v>1.408423768405665</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.548281953705146</v>
+        <v>1.293519333728146</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.316691688283855</v>
+        <v>1.474907943619943</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.544945206246422</v>
+        <v>1.447431963224194</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.613503953267353</v>
+        <v>1.445557195578089</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.475025079407404</v>
+        <v>1.425858794411564</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.521107319170736</v>
+        <v>1.51294078958015</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.687714393849434</v>
+        <v>1.358180520569533</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.516960888713985</v>
+        <v>1.447437497012292</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.248687379102676</v>
+        <v>1.456023966923299</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.571846639676398</v>
+        <v>1.757785347588761</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.536277387244834</v>
+        <v>1.560959575838192</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.295233157756951</v>
+        <v>1.61129619591792</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.491784898131349</v>
+        <v>1.37758483688788</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.437086094626516</v>
+        <v>1.482138475656127</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.448045001142833</v>
+        <v>1.524894828909882</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.385611768874895</v>
+        <v>1.560808801646433</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/03_localizer.xlsx
+++ b/sequences/03_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
   </si>
   <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
   </si>
   <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
     <t>flower/flower058.jpg</t>
   </si>
   <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
   </si>
   <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
   </si>
   <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>face/face073.jpg</t>
   </si>
   <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>dog/dog076.jpg</t>
   </si>
   <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
   </si>
   <si>
     <t>face/face092.jpg</t>
   </si>
   <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
     <t>house/house083.jpg</t>
   </si>
   <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
+    <t>house/house084.jpg</t>
   </si>
   <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
+    <t>flower/flower086.jpg</t>
   </si>
   <si>
     <t>dog/dog086.jpg</t>
   </si>
   <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
     <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.637358752929734</v>
+        <v>1.534074073947527</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.319869866584743</v>
+        <v>1.487814522618822</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.360060324980009</v>
+        <v>1.646207755703938</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.302849635113154</v>
+        <v>1.416224603154738</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.543146334325985</v>
+        <v>1.494323165423315</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.437342315774744</v>
+        <v>1.412318365964489</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1.381034117124075</v>
+        <v>1.74751308333129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.30021630985265</v>
+        <v>1.385825057547114</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.629696270408675</v>
+        <v>1.384213985505566</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.713095254950968</v>
+        <v>1.410845144219959</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.534954920910669</v>
+        <v>1.464921390444146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.515898471739116</v>
+        <v>1.180497314603347</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.351338429646639</v>
+        <v>1.599774824486186</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.290823688564064</v>
+        <v>1.425808070994205</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.554847830269657</v>
+        <v>1.514186093791754</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1.431651807662955</v>
+        <v>1.312535870885839</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.304443828474134</v>
+        <v>1.770528591968606</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.561727951966236</v>
+        <v>1.432878377667709</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.932401250128963</v>
+        <v>1.677540352184282</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.376574739927234</v>
+        <v>1.538426434511722</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.372551288242911</v>
+        <v>1.280099731727291</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.468314455259942</v>
+        <v>1.550270032640697</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.343963672308718</v>
+        <v>1.467625832636671</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.608058762139022</v>
+        <v>1.559863257992945</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.670923293516491</v>
+        <v>1.389146441816258</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.478951253425593</v>
+        <v>1.446397472042213</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.676666901530238</v>
+        <v>1.542214462590619</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.291254985727408</v>
+        <v>1.761748257114435</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.638654580677098</v>
+        <v>1.268468121649523</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.55276271757239</v>
+        <v>1.746710388497135</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.483625277295371</v>
+        <v>1.363943785144464</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.796192579766971</v>
+        <v>1.255984559245132</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.619191454736411</v>
+        <v>1.410331114372708</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.537315039160857</v>
+        <v>1.379002055204228</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.480917975450889</v>
+        <v>1.453395837495473</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.845339129826932</v>
+        <v>1.403255672939711</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.750523364797881</v>
+        <v>1.591298194282335</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.752209600782568</v>
+        <v>1.383653097596368</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.563416450606277</v>
+        <v>1.43130442095591</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.318727917569421</v>
+        <v>1.28030303327481</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.722736890729563</v>
+        <v>1.579396767188019</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.66136508440432</v>
+        <v>1.512886501330968</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.503972758865028</v>
+        <v>1.315926271195605</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.500589491572327</v>
+        <v>1.508103961001028</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.606234305332787</v>
+        <v>1.440973820572943</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.379114292178006</v>
+        <v>1.442927273904741</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.330779982156638</v>
+        <v>1.483218136762935</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.609400566299543</v>
+        <v>1.368565649720162</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.427115293124753</v>
+        <v>1.575087378823222</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.634588105261255</v>
+        <v>1.607594655028385</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.607050669487673</v>
+        <v>1.50134639929557</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.256883479163823</v>
+        <v>1.578288721505458</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.675342785398636</v>
+        <v>1.482270275452505</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.2497141889667</v>
+        <v>1.392714380769184</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.649504450543203</v>
+        <v>1.563663412567736</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.350785112493889</v>
+        <v>1.385932330469616</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.021471247223126</v>
+        <v>1.336275322532042</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.406154386978592</v>
+        <v>1.530666946053931</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.305089491575899</v>
+        <v>1.784688872586314</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.491816041240621</v>
+        <v>1.345008478552524</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>1.14944918217126</v>
+        <v>1.506593467976963</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.320095323731352</v>
+        <v>1.363924210908816</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.537730264334402</v>
+        <v>1.533928753389892</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.213776082982999</v>
+        <v>1.661878842883538</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.328947669375649</v>
+        <v>1.720751950199219</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.503429806402168</v>
+        <v>1.439285726223277</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.595815475096175</v>
+        <v>1.533543866086886</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.813412443177561</v>
+        <v>1.465488425788854</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.5524732384687</v>
+        <v>1.649884221098211</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.227104778302812</v>
+        <v>1.549295178309127</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.586443311755147</v>
+        <v>1.49693602771936</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.6004173764621</v>
+        <v>1.515863843314432</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.566009301512032</v>
+        <v>1.293976428589052</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.329047025293416</v>
+        <v>1.57637115593034</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.440444629471337</v>
+        <v>1.13337670713451</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.651205329311948</v>
+        <v>1.600403150975777</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.708521313525911</v>
+        <v>1.467986329882522</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.209546369793917</v>
+        <v>1.817838792413609</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.420926154994362</v>
+        <v>1.707643748202844</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.592480096786109</v>
+        <v>1.402851136040484</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.471390903904924</v>
+        <v>1.566972484918097</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.549461832702925</v>
+        <v>1.746908390114943</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.490286547712024</v>
+        <v>1.591916815830333</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.43107793225056</v>
+        <v>1.610662809497732</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.642419388880778</v>
+        <v>1.675259666223207</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.348224502315496</v>
+        <v>1.519007928335543</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.460548415982103</v>
+        <v>1.437258715435398</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.573986913033354</v>
+        <v>1.762145438280215</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.314780692107169</v>
+        <v>1.477918864838334</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.605904649195509</v>
+        <v>1.217346297805061</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.680193217126861</v>
+        <v>1.288281460321383</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.565424206675608</v>
+        <v>1.646103878301831</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.421471865816891</v>
+        <v>1.650173986228881</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.378313566787745</v>
+        <v>1.887460499651464</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.31369808965396</v>
+        <v>1.374717920862059</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.533797118764593</v>
+        <v>1.401632698745769</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.368842856515957</v>
+        <v>1.359815122785545</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.200696434859704</v>
+        <v>1.374197946406918</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.522186263709637</v>
+        <v>1.652257279546538</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.477472086101818</v>
+        <v>1.667828176348884</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.688698914988347</v>
+        <v>1.488342412499266</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.411058219490134</v>
+        <v>1.704128437914258</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.254111160231915</v>
+        <v>1.462200701958875</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.796679060696203</v>
+        <v>1.718070716195419</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.462673181937369</v>
+        <v>1.266751889063489</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.727761703475565</v>
+        <v>1.549289392234875</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.562184232883724</v>
+        <v>1.438245899830462</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.402846714677046</v>
+        <v>1.446966030501203</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.454046964494587</v>
+        <v>1.375733207569677</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.709479481075281</v>
+        <v>1.57461817768532</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.569682628958284</v>
+        <v>1.406820498210871</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.512197459018731</v>
+        <v>1.928284637661238</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.390742739099087</v>
+        <v>1.32275523378866</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.444590357907277</v>
+        <v>1.519443411214205</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.328314313385885</v>
+        <v>1.811818584595693</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.563454901627769</v>
+        <v>1.506480919820574</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.457559621548936</v>
+        <v>1.618543111674382</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.265185399036858</v>
+        <v>1.481302736563175</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.61801616670275</v>
+        <v>1.619233311540081</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.245825556910247</v>
+        <v>1.496142259386412</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.448910635770397</v>
+        <v>1.670762679666964</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.544951590571765</v>
+        <v>1.305893701946149</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.591425938790346</v>
+        <v>1.439321780988679</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1.288351365786154</v>
+        <v>1.397408907482846</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.722424052298027</v>
+        <v>1.562059796238878</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.466037175666177</v>
+        <v>1.497557282318203</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.466680902722039</v>
+        <v>1.570600700072395</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.75019645389591</v>
+        <v>1.589639140938886</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.924054898958823</v>
+        <v>1.38062084710954</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.477344729442668</v>
+        <v>1.313935930029882</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.516209390225852</v>
+        <v>1.657261580087118</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.524555932200172</v>
+        <v>1.380427705271128</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.585935503051886</v>
+        <v>1.448292472872696</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.792885327212819</v>
+        <v>1.266191883689384</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.540177976156487</v>
+        <v>1.231388699113153</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.489783030384815</v>
+        <v>1.559971801038734</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.466504550278183</v>
+        <v>1.491091855854779</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.306088347539005</v>
+        <v>1.469464442570812</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.477920781693949</v>
+        <v>1.419252543786631</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.701348876507439</v>
+        <v>1.543574874960505</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.450713743864559</v>
+        <v>1.66738986457174</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.53459395446214</v>
+        <v>1.512180904956548</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.438466373971639</v>
+        <v>1.482634160470022</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.463064804576886</v>
+        <v>1.423876104316314</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.67894787766377</v>
+        <v>1.536508158430764</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.68058948787923</v>
+        <v>1.658146776491018</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.505398167903538</v>
+        <v>1.490437341483042</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.658106675852826</v>
+        <v>1.693474698599424</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.409176623136666</v>
+        <v>1.727613201300585</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.366345346856206</v>
+        <v>1.283937127731606</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.414596838508983</v>
+        <v>1.305823687800766</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.772943134066324</v>
+        <v>1.476310556177046</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.587689641411597</v>
+        <v>1.606159437060822</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.412859638757351</v>
+        <v>1.559186647521629</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>1.500411002860846</v>
+        <v>1.541361558290745</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.350136542272686</v>
+        <v>1.56053866242018</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.459415490765018</v>
+        <v>1.492987570546633</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.527652181975111</v>
+        <v>1.470881016403955</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.386760252913324</v>
+        <v>1.431414820734578</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1.488124224295282</v>
+        <v>1.560752543467926</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.308908733662416</v>
+        <v>1.59235202122963</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.742861013430479</v>
+        <v>1.628780600894384</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.403653054962755</v>
+        <v>1.439870015141886</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.57932934494509</v>
+        <v>1.430619282525016</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.630038103531902</v>
+        <v>1.613452255066198</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.420789880527466</v>
+        <v>1.557996417019057</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.344521165975368</v>
+        <v>1.796946519573675</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.610974502988409</v>
+        <v>1.638186183827504</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.498573663593905</v>
+        <v>1.358770160751778</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.572073189664076</v>
+        <v>1.656446678866264</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.592161039177563</v>
+        <v>1.280307317317794</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.400961981654997</v>
+        <v>1.571464283312882</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.494511007924898</v>
+        <v>1.244793143969286</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.650805983494096</v>
+        <v>1.414402626748974</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.662869233378006</v>
+        <v>1.668753836131553</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.735983999528428</v>
+        <v>1.251671677218282</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.55163202172332</v>
+        <v>1.676749727709683</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.556534949013915</v>
+        <v>1.460995313323106</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.441517199411209</v>
+        <v>1.901157752977213</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.535383777542035</v>
+        <v>1.458364517997397</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.241540559030665</v>
+        <v>1.374293247603039</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.636324045780668</v>
+        <v>1.683491538252731</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.52345922424281</v>
+        <v>1.557778093002589</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.365926090251155</v>
+        <v>1.435181333724963</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.801745382025665</v>
+        <v>1.417352307287482</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.319183440190248</v>
+        <v>1.591090549689983</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.408345012100752</v>
+        <v>1.546141811817168</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.560919847704861</v>
+        <v>1.261604392279355</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.356340918792694</v>
+        <v>1.562892215869407</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.416857242185077</v>
+        <v>1.584433152714775</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.390972403649585</v>
+        <v>1.485249358929118</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.560817733615312</v>
+        <v>1.430862723738331</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.489785821575017</v>
+        <v>1.432975709427627</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.505330625825867</v>
+        <v>1.48719629598314</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.449875124257824</v>
+        <v>1.500749391322326</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.724650777264326</v>
+        <v>1.379759987368097</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>1.540128792677142</v>
+        <v>1.380582028474196</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.497579504204448</v>
+        <v>1.517066380347854</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.688790983366266</v>
+        <v>1.660608677553252</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.339118251060827</v>
+        <v>1.344054093037899</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.606529388794821</v>
+        <v>1.272279641819087</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.542592725828259</v>
+        <v>1.575719906107325</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.737297411792914</v>
+        <v>1.489118194462947</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.532970735617319</v>
+        <v>1.427153508723831</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.467810065019253</v>
+        <v>1.668378661046673</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.462042799245023</v>
+        <v>1.388503243737258</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.308043729601257</v>
+        <v>1.977307339278953</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.402364816842368</v>
+        <v>1.674359470317476</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.752503731935712</v>
+        <v>1.362154139735649</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.312404145249915</v>
+        <v>1.455463234786378</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.444007278288605</v>
+        <v>1.39560516207422</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.687113094003049</v>
+        <v>1.325734852695347</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.488014714144575</v>
+        <v>1.596223360374456</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="F215">
-        <v>1.772749778278377</v>
+        <v>1.370157477087022</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.724866422207819</v>
+        <v>1.5052102657858</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.50232722816693</v>
+        <v>1.376144579229193</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.575633644690578</v>
+        <v>1.397780460681903</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.587947985059594</v>
+        <v>1.323898486837604</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.136920440715015</v>
+        <v>1.685184266191314</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.520903789687838</v>
+        <v>1.377799658661082</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.658138668958294</v>
+        <v>1.521320282418021</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.314905109341023</v>
+        <v>1.350964728323963</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>1.32734277687068</v>
+        <v>1.592709464948726</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.421694452561953</v>
+        <v>1.390255200590386</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.216993537501607</v>
+        <v>1.406928385660087</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.337755361982387</v>
+        <v>1.492003146473459</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.229204507784681</v>
+        <v>1.284406598458779</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.493595828473399</v>
+        <v>1.655956434223818</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.630064632513714</v>
+        <v>1.358683838715264</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.759859510088073</v>
+        <v>1.674874942658904</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.528962107067825</v>
+        <v>1.388602892636649</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.621947032762937</v>
+        <v>1.658836739231078</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.456808391947503</v>
+        <v>1.51266174555475</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.555180532721058</v>
+        <v>1.680318353646767</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.414878736511805</v>
+        <v>1.558156138788072</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.689629700934446</v>
+        <v>1.619182402321637</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.541765113262507</v>
+        <v>1.271309829016605</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.547425200574982</v>
+        <v>1.606070795500094</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.555497762982106</v>
+        <v>1.233588591499719</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.408423768405665</v>
+        <v>1.199198435789004</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.293519333728146</v>
+        <v>1.590074213898846</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.474907943619943</v>
+        <v>1.529511016254381</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.447431963224194</v>
+        <v>1.710626655235888</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.445557195578089</v>
+        <v>1.610868478253424</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.425858794411564</v>
+        <v>1.793221199942422</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.51294078958015</v>
+        <v>1.448091048197131</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.358180520569533</v>
+        <v>1.342264142125584</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.447437497012292</v>
+        <v>1.212620691619115</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.456023966923299</v>
+        <v>1.342229811763106</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.757785347588761</v>
+        <v>1.579411916517034</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.560959575838192</v>
+        <v>1.413529975185772</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.61129619591792</v>
+        <v>1.526372285142731</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.37758483688788</v>
+        <v>1.642703541991312</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.482138475656127</v>
+        <v>1.539127395742512</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.524894828909882</v>
+        <v>1.285515572883843</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.560808801646433</v>
+        <v>1.634586619831578</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/03_localizer.xlsx
+++ b/sequences/03_localizer.xlsx
@@ -31,220 +31,379 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
   </si>
   <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
   </si>
   <si>
     <t>face/face045.jpg</t>
   </si>
   <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
   </si>
   <si>
     <t>dog/dog050.jpg</t>
   </si>
   <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>dog/dog056.jpg</t>
@@ -253,562 +412,403 @@
     <t>dog/dog055.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
   </si>
   <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
     <t>face/face052.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
   </si>
   <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
     <t>house/house066.jpg</t>
   </si>
   <si>
-    <t>flower/flower073.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
   </si>
   <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
   </si>
   <si>
     <t>flower/flower068.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
   </si>
   <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
     <t>flower/flower094.jpg</t>
   </si>
   <si>
-    <t>face/face088.jpg</t>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
   </si>
   <si>
     <t>face/face084.jpg</t>
   </si>
   <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.534074073947527</v>
+        <v>1.234429595090969</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.487814522618822</v>
+        <v>1.450758214898541</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.646207755703938</v>
+        <v>1.385210405595285</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.416224603154738</v>
+        <v>1.348322007950715</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.494323165423315</v>
+        <v>1.64604740487681</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.412318365964489</v>
+        <v>1.349400173942061</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.74751308333129</v>
+        <v>1.474159890058908</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.385825057547114</v>
+        <v>1.34131737364372</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.384213985505566</v>
+        <v>1.691570280021783</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,10 +1383,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1.410845144219959</v>
+        <v>1.717291010282975</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.464921390444146</v>
+        <v>1.467700087240534</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.180497314603347</v>
+        <v>1.733432225966294</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.599774824486186</v>
+        <v>1.517517553866334</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.425808070994205</v>
+        <v>1.418070508829561</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.514186093791754</v>
+        <v>1.582520067294245</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.312535870885839</v>
+        <v>1.620008061141526</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.770528591968606</v>
+        <v>1.071909346197547</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.432878377667709</v>
+        <v>1.54051290712652</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.677540352184282</v>
+        <v>1.52023759902977</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.538426434511722</v>
+        <v>1.733787847580826</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.280099731727291</v>
+        <v>1.765114582681848</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.550270032640697</v>
+        <v>1.316808023104831</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.467625832636671</v>
+        <v>1.7307299609962</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.559863257992945</v>
+        <v>1.084155267358065</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.389146441816258</v>
+        <v>1.569486319358685</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.446397472042213</v>
+        <v>1.532336292184417</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.542214462590619</v>
+        <v>1.553931311434325</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.761748257114435</v>
+        <v>1.802648310078441</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.268468121649523</v>
+        <v>1.448782422102961</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.746710388497135</v>
+        <v>1.584241887152821</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.363943785144464</v>
+        <v>1.790844538456283</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.255984559245132</v>
+        <v>1.343493125834445</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.410331114372708</v>
+        <v>1.632202397350429</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.379002055204228</v>
+        <v>1.623603014439225</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.453395837495473</v>
+        <v>1.243536309106988</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.403255672939711</v>
+        <v>1.564878219561442</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.591298194282335</v>
+        <v>1.396886064277013</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1.383653097596368</v>
+        <v>1.569704460905446</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.43130442095591</v>
+        <v>1.638489177741379</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.28030303327481</v>
+        <v>1.524294882305651</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.579396767188019</v>
+        <v>1.635621894725875</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.512886501330968</v>
+        <v>1.341057875533876</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.315926271195605</v>
+        <v>1.331670527786998</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.508103961001028</v>
+        <v>1.385502478396123</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.440973820572943</v>
+        <v>1.505126937364674</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.442927273904741</v>
+        <v>1.611700151481927</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.483218136762935</v>
+        <v>1.678854682399653</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.368565649720162</v>
+        <v>1.481526759111842</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.575087378823222</v>
+        <v>1.698761659505205</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.607594655028385</v>
+        <v>1.352168533404497</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.50134639929557</v>
+        <v>1.698163026687189</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.578288721505458</v>
+        <v>1.684352421116976</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.482270275452505</v>
+        <v>1.756540324339597</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.392714380769184</v>
+        <v>1.537426331926432</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.563663412567736</v>
+        <v>1.500506392022127</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.385932330469616</v>
+        <v>1.378631213887922</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.336275322532042</v>
+        <v>1.580925203457952</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.530666946053931</v>
+        <v>1.441190836170224</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.784688872586314</v>
+        <v>1.455975083826668</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.345008478552524</v>
+        <v>1.692777451167695</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1.506593467976963</v>
+        <v>1.807218760610618</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.363924210908816</v>
+        <v>1.743501142651534</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.533928753389892</v>
+        <v>1.450312178815043</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.661878842883538</v>
+        <v>1.403621124985841</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.720751950199219</v>
+        <v>1.466391758684366</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.439285726223277</v>
+        <v>1.436587270198314</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.533543866086886</v>
+        <v>1.724448369660273</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.465488425788854</v>
+        <v>1.468744281544644</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.649884221098211</v>
+        <v>1.381345582710892</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.549295178309127</v>
+        <v>1.46747240551988</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.49693602771936</v>
+        <v>1.60033945917868</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.515863843314432</v>
+        <v>1.608168910222045</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.293976428589052</v>
+        <v>1.528160722478405</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.57637115593034</v>
+        <v>1.678506220881535</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
-        <v>1.13337670713451</v>
+        <v>1.327748070984934</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.600403150975777</v>
+        <v>1.381293478613742</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.467986329882522</v>
+        <v>1.559128313170819</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.817838792413609</v>
+        <v>1.594169849585683</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.707643748202844</v>
+        <v>1.485641689156276</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.402851136040484</v>
+        <v>1.3828019305725</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.566972484918097</v>
+        <v>1.365158069455331</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.746908390114943</v>
+        <v>1.268553543700979</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.591916815830333</v>
+        <v>1.494719859817391</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.610662809497732</v>
+        <v>1.272036122767492</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.675259666223207</v>
+        <v>1.477259157680625</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.519007928335543</v>
+        <v>1.565292002828863</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.437258715435398</v>
+        <v>1.549705429995854</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.762145438280215</v>
+        <v>1.480067468338253</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.477918864838334</v>
+        <v>1.595013703145469</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.217346297805061</v>
+        <v>1.352253288339853</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.288281460321383</v>
+        <v>1.347340696146468</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.646103878301831</v>
+        <v>1.644910223004864</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.650173986228881</v>
+        <v>1.486237989180779</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.887460499651464</v>
+        <v>1.436620433048718</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.374717920862059</v>
+        <v>1.448527215505959</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.401632698745769</v>
+        <v>1.446338243771034</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.359815122785545</v>
+        <v>1.409802126703083</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.374197946406918</v>
+        <v>1.628447656326749</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.652257279546538</v>
+        <v>1.381668501680929</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.667828176348884</v>
+        <v>1.619986927347837</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.488342412499266</v>
+        <v>1.55416126809335</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.704128437914258</v>
+        <v>1.130800188781371</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.462200701958875</v>
+        <v>1.433741016676386</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.718070716195419</v>
+        <v>1.609096020292242</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.266751889063489</v>
+        <v>1.233416764807632</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.549289392234875</v>
+        <v>1.617966730253241</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="F108">
-        <v>1.438245899830462</v>
+        <v>1.437022578600581</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.446966030501203</v>
+        <v>1.510081947310495</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.375733207569677</v>
+        <v>1.436445561289538</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.57461817768532</v>
+        <v>1.64057501142398</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.406820498210871</v>
+        <v>1.404213979978635</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.928284637661238</v>
+        <v>1.596059593471071</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.32275523378866</v>
+        <v>1.745923802098564</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.519443411214205</v>
+        <v>1.41276000248211</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.811818584595693</v>
+        <v>1.362217939697201</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.506480919820574</v>
+        <v>1.592670514147152</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.618543111674382</v>
+        <v>1.53430137230512</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.481302736563175</v>
+        <v>1.487838510567987</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.619233311540081</v>
+        <v>1.65845975653262</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.496142259386412</v>
+        <v>1.403411012109463</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.670762679666964</v>
+        <v>1.748763146090202</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.305893701946149</v>
+        <v>1.460271118943025</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.439321780988679</v>
+        <v>1.352969812331234</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.397408907482846</v>
+        <v>1.551824394597462</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.562059796238878</v>
+        <v>1.57091602567922</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.497557282318203</v>
+        <v>1.672316352852092</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.570600700072395</v>
+        <v>1.398082665755346</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.589639140938886</v>
+        <v>1.563933965193781</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.38062084710954</v>
+        <v>1.543507402237643</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.313935930029882</v>
+        <v>1.463705856314933</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.657261580087118</v>
+        <v>1.277522272275514</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.380427705271128</v>
+        <v>1.438144182616133</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.448292472872696</v>
+        <v>1.710666997324841</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.266191883689384</v>
+        <v>1.486724061144525</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.231388699113153</v>
+        <v>1.392465112573393</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.559971801038734</v>
+        <v>1.420832319640084</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.491091855854779</v>
+        <v>1.511069363535012</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.469464442570812</v>
+        <v>1.564326977518879</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="F140">
-        <v>1.419252543786631</v>
+        <v>1.622287490081534</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.543574874960505</v>
+        <v>1.339860740021385</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.66738986457174</v>
+        <v>1.446479108567513</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,10 +4023,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143">
-        <v>1.512180904956548</v>
+        <v>1.330380279095642</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.482634160470022</v>
+        <v>1.553256779302874</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.423876104316314</v>
+        <v>1.30603277647139</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.536508158430764</v>
+        <v>1.586852126599744</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.658146776491018</v>
+        <v>1.443543948760893</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.490437341483042</v>
+        <v>1.419388203385842</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.693474698599424</v>
+        <v>1.416475205423405</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.727613201300585</v>
+        <v>1.701404961248798</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.283937127731606</v>
+        <v>1.495790767171548</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.305823687800766</v>
+        <v>1.475194084364771</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.476310556177046</v>
+        <v>1.493007865836524</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.606159437060822</v>
+        <v>1.375810848898175</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.559186647521629</v>
+        <v>1.551095988277429</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.541361558290745</v>
+        <v>1.413560174880682</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.56053866242018</v>
+        <v>1.254310283365859</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.492987570546633</v>
+        <v>1.33960747663591</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.470881016403955</v>
+        <v>1.786174594238801</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.431414820734578</v>
+        <v>1.31985215526224</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.560752543467926</v>
+        <v>1.59431576663192</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.59235202122963</v>
+        <v>1.524043915743672</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.628780600894384</v>
+        <v>1.536833896235217</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.439870015141886</v>
+        <v>1.56790742662755</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.430619282525016</v>
+        <v>1.486672382725505</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.613452255066198</v>
+        <v>1.444406551417931</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.557996417019057</v>
+        <v>1.404592020910523</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.796946519573675</v>
+        <v>1.594466229816217</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.638186183827504</v>
+        <v>1.55039206365408</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.358770160751778</v>
+        <v>1.454919810733619</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.656446678866264</v>
+        <v>1.276028051034019</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172">
-        <v>1.280307317317794</v>
+        <v>1.23480909842471</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.571464283312882</v>
+        <v>1.515483770702862</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.244793143969286</v>
+        <v>1.456600968206591</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.414402626748974</v>
+        <v>1.611814046272822</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.668753836131553</v>
+        <v>1.621555679382619</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.251671677218282</v>
+        <v>1.59887592914177</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.676749727709683</v>
+        <v>1.343388487638399</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.460995313323106</v>
+        <v>1.719615565882869</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.901157752977213</v>
+        <v>1.426194968134761</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.458364517997397</v>
+        <v>1.404956210938866</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.374293247603039</v>
+        <v>1.766551837737517</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.683491538252731</v>
+        <v>1.227315683436031</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.557778093002589</v>
+        <v>1.57478556270282</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.435181333724963</v>
+        <v>1.614370262160108</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186">
-        <v>1.417352307287482</v>
+        <v>1.247312318302843</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.591090549689983</v>
+        <v>1.374518476617507</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.546141811817168</v>
+        <v>1.347902107206232</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.261604392279355</v>
+        <v>1.579979908140414</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.562892215869407</v>
+        <v>1.305009925553277</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.584433152714775</v>
+        <v>1.631943921609628</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.485249358929118</v>
+        <v>1.297943134912776</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.430862723738331</v>
+        <v>1.544419290073684</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.432975709427627</v>
+        <v>1.424201060631568</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.48719629598314</v>
+        <v>1.655963818408139</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.500749391322326</v>
+        <v>1.327905050182266</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.379759987368097</v>
+        <v>1.356661846701932</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.380582028474196</v>
+        <v>1.200580262031293</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.517066380347854</v>
+        <v>1.167708328735616</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.660608677553252</v>
+        <v>1.445505226794239</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.344054093037899</v>
+        <v>1.813440126842159</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.272279641819087</v>
+        <v>1.256705381195953</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.575719906107325</v>
+        <v>1.404751988158716</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.489118194462947</v>
+        <v>1.693392567657141</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.427153508723831</v>
+        <v>1.379031065878762</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.668378661046673</v>
+        <v>1.572965148787614</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.388503243737258</v>
+        <v>1.605779641517755</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.977307339278953</v>
+        <v>1.569089618472274</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.674359470317476</v>
+        <v>1.139244889275794</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.362154139735649</v>
+        <v>1.343831040359079</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.455463234786378</v>
+        <v>1.683238326617545</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.39560516207422</v>
+        <v>1.654005786968388</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.325734852695347</v>
+        <v>1.474719213551554</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.596223360374456</v>
+        <v>1.690066618499486</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.370157477087022</v>
+        <v>1.474739514714305</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.5052102657858</v>
+        <v>1.469479079850454</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.376144579229193</v>
+        <v>1.42039883698881</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218">
-        <v>1.397780460681903</v>
+        <v>1.495782762670755</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.323898486837604</v>
+        <v>1.291867946759888</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.685184266191314</v>
+        <v>1.312365742733504</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.377799658661082</v>
+        <v>1.762832720377746</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.521320282418021</v>
+        <v>1.602682675097821</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.350964728323963</v>
+        <v>1.48881101213058</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="F224">
-        <v>1.592709464948726</v>
+        <v>1.559710457783884</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.390255200590386</v>
+        <v>1.394955747302768</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.406928385660087</v>
+        <v>1.485096115123977</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.492003146473459</v>
+        <v>1.606436736129601</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.284406598458779</v>
+        <v>1.524025175011245</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.655956434223818</v>
+        <v>1.671782166182563</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.358683838715264</v>
+        <v>1.37359791780023</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.674874942658904</v>
+        <v>1.668379831286066</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.388602892636649</v>
+        <v>1.351141977888572</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.658836739231078</v>
+        <v>1.42733021223273</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.51266174555475</v>
+        <v>1.443507515428349</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.680318353646767</v>
+        <v>1.681330144377249</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.558156138788072</v>
+        <v>1.833128750275802</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.619182402321637</v>
+        <v>1.594544936453031</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.271309829016605</v>
+        <v>1.48166400109109</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.606070795500094</v>
+        <v>1.419977386500972</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.233588591499719</v>
+        <v>1.430776478461065</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.199198435789004</v>
+        <v>1.562778699202508</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.590074213898846</v>
+        <v>1.565097598966354</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.529511016254381</v>
+        <v>1.406972152420686</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.710626655235888</v>
+        <v>1.407719619080411</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.610868478253424</v>
+        <v>1.505882711706346</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.793221199942422</v>
+        <v>1.695270782802303</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.448091048197131</v>
+        <v>1.417989986004337</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.342264142125584</v>
+        <v>1.506582706673665</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.212620691619115</v>
+        <v>1.769770100496517</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.342229811763106</v>
+        <v>1.629005101211781</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.579411916517034</v>
+        <v>1.41486261707799</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.413529975185772</v>
+        <v>1.437726314538478</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.526372285142731</v>
+        <v>1.424765560977219</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.642703541991312</v>
+        <v>1.535978436450101</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.539127395742512</v>
+        <v>1.535888512034166</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.285515572883843</v>
+        <v>1.539430566698861</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.634586619831578</v>
+        <v>1.457016701756676</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/03_localizer.xlsx
+++ b/sequences/03_localizer.xlsx
@@ -34,442 +34,574 @@
     <t>house</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
     <t>house/house036.jpg</t>
   </si>
   <si>
-    <t>face/face043.jpg</t>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
   </si>
   <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
     <t>house/house050.jpg</t>
   </si>
   <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
   </si>
   <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>face/face074.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
   </si>
   <si>
     <t>face/face075.jpg</t>
   </si>
   <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
     <t>flower/flower073.jpg</t>
   </si>
   <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
     <t>flower/flower069.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>flower/flower075.jpg</t>
   </si>
   <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
@@ -478,337 +610,205 @@
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
   </si>
   <si>
     <t>house/house082.jpg</t>
   </si>
   <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
   </si>
   <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
     <t>face/face090.jpg</t>
   </si>
   <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1.349400173942061</v>
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1.717291010282975</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1.733432225966294</v>
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1.54051290712652</v>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1.084155267358065</v>
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>1.569704460905446</v>
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>1.524294882305651</v>
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>1.698761659505205</v>
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>1.756540324339597</v>
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>1.537426331926432</v>
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58">
         <v>1.580925203457952</v>
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>1.403621124985841</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2563,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
         <v>1.381345582710892</v>
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>1.60033945917868</v>
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>1.327748070984934</v>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
         <v>1.559128313170819</v>
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>1.477259157680625</v>
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
         <v>1.409802126703083</v>
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
         <v>1.55416126809335</v>
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <v>1.64057501142398</v>
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
         <v>1.487838510567987</v>
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
         <v>1.65845975653262</v>
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
         <v>1.403411012109463</v>
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
         <v>1.398082665755346</v>
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
         <v>1.622287490081534</v>
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
         <v>1.339860740021385</v>
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4023,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143">
         <v>1.330380279095642</v>
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,7 +4203,7 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
         <v>1.475194084364771</v>
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,7 +4363,7 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
         <v>1.31985215526224</v>
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,7 +4383,7 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
         <v>1.59431576663192</v>
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4463,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
         <v>1.486672382725505</v>
@@ -4483,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
         <v>1.444406551417931</v>
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
         <v>1.23480909842471</v>
@@ -4623,7 +4623,7 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
         <v>1.515483770702862</v>
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4743,7 +4743,7 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
         <v>1.719615565882869</v>
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
         <v>1.227315683436031</v>
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4883,7 +4883,7 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>1.247312318302843</v>
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -5003,7 +5003,7 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192">
         <v>1.297943134912776</v>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,7 +5063,7 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>1.655963818408139</v>
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
         <v>1.693392567657141</v>
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
         <v>1.569089618472274</v>
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,7 +5483,7 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
         <v>1.469479079850454</v>
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
         <v>1.42039883698881</v>
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5623,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
         <v>1.48881101213058</v>
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
         <v>1.559710457783884</v>
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5683,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
         <v>1.485096115123977</v>
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,7 +5843,7 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
         <v>1.443507515428349</v>
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,7 +5943,7 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>1.419977386500972</v>
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244">
         <v>1.407719619080411</v>
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6083,7 +6083,7 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
         <v>1.695270782802303</v>
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
         <v>1.417989986004337</v>
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
         <v>1.437726314538478</v>
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
